--- a/External/Xlsx.KeySwitches/Template.xlsx
+++ b/External/Xlsx.KeySwitches/Template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2AC71A3-3230-FF42-9DA4-5ADF64A808B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621C0155-0A59-D644-922F-EB8B3AC288C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="480" windowWidth="24820" windowHeight="15060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2620,13 +2620,11 @@
   </sheetPr>
   <dimension ref="A1:G258"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9" style="4" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="4" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="4" customWidth="1"/>
     <col min="3" max="4" width="20" style="4" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" style="4" customWidth="1"/>
@@ -2636,10 +2634,7 @@
     <col min="1028" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A1" s="4">
-        <v>1</v>
-      </c>
+    <row r="1" spans="2:7" ht="23.25" customHeight="1">
       <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2659,7 +2654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="2:7">
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="5"/>
@@ -2667,7 +2662,7 @@
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
@@ -2687,7 +2682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -2707,7 +2702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2725,7 +2720,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
@@ -2743,7 +2738,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="2:7">
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
@@ -2758,7 +2753,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="2:7">
       <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
@@ -2773,7 +2768,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="2:7">
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
@@ -2788,7 +2783,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="2:7">
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
@@ -2803,7 +2798,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="2:7">
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
@@ -2818,7 +2813,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="2:7">
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
@@ -2833,7 +2828,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="2:7">
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
@@ -2848,7 +2843,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="2:7">
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
@@ -2863,7 +2858,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="2:7">
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
@@ -2878,7 +2873,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="2:7">
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>

--- a/External/Xlsx.KeySwitches/Template.xlsx
+++ b/External/Xlsx.KeySwitches/Template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621C0155-0A59-D644-922F-EB8B3AC288C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861216E7-BF42-644C-BD76-C4D8BD299849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="480" windowWidth="24820" windowHeight="15060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1112,7 +1112,7 @@
       <pane xSplit="1" ySplit="25" topLeftCell="B26" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -2578,38 +2578,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
-  <dataValidations count="3">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="D26:E120" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>0</formula1>
-      <formula2>127</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="C26:C120" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>0</formula1>
-      <formula2>127</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="F26:G120" xr:uid="{00000000-0002-0000-0000-000003000000}">
-      <formula1>0</formula1>
-      <formula2>127</formula2>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty." xr:uid="{00000000-0002-0000-0000-000007000000}">
-          <x14:formula1>
-            <xm:f>'DO NOT MODIFY!'!$B$2:$B$258</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>B26:B120</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 

--- a/External/Xlsx.KeySwitches/Template.xlsx
+++ b/External/Xlsx.KeySwitches/Template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861216E7-BF42-644C-BD76-C4D8BD299849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8EFA22-CDAD-D649-8D90-5DBAB88D44C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="480" windowWidth="24820" windowHeight="15060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="140">
   <si>
     <t>Articulation Type</t>
   </si>
@@ -34,18 +34,6 @@
     <t>Group</t>
   </si>
   <si>
-    <t>MIDI Note1</t>
-  </si>
-  <si>
-    <t>Velocity1</t>
-  </si>
-  <si>
-    <t>CC No1</t>
-  </si>
-  <si>
-    <t>CC Value1</t>
-  </si>
-  <si>
     <t>Direction</t>
   </si>
   <si>
@@ -62,14 +50,6 @@
   </si>
   <si>
     <t>Articulation Name</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>PC Channel1</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>PC Data1</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -509,7 +489,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,24 +506,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC6D9F1"/>
         <bgColor rgb="FFB7DEE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDEADA"/>
-        <bgColor rgb="FFEBF1DE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB7DEE8"/>
-        <bgColor rgb="FFC6D9F1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF79646"/>
-        <bgColor rgb="FFFF8080"/>
       </patternFill>
     </fill>
     <fill>
@@ -621,17 +583,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -649,18 +611,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -670,10 +620,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -682,16 +629,16 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1106,1475 +1053,776 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J120"/>
+  <dimension ref="A1:J126"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="25" topLeftCell="B26" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="39.5" style="14" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="15" customWidth="1"/>
+    <col min="1" max="1" width="39.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="11" customWidth="1"/>
     <col min="11" max="1024" width="9.83203125" style="4" customWidth="1"/>
     <col min="1025" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A1" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C1" s="15"/>
+      <c r="A1" s="12" t="s">
+        <v>138</v>
+      </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A2" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="A2" s="9" t="s">
+        <v>139</v>
+      </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A3" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="15"/>
+      <c r="A3" s="12" t="s">
+        <v>137</v>
+      </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A4" s="23"/>
-      <c r="C4" s="15"/>
+      <c r="A4" s="18"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" hidden="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" hidden="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" hidden="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" hidden="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" hidden="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" hidden="1">
       <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" hidden="1">
       <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" hidden="1">
       <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" hidden="1">
       <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" hidden="1">
       <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" hidden="1">
       <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" hidden="1">
       <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" hidden="1">
       <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" hidden="1">
       <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" hidden="1">
       <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" hidden="1">
       <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" hidden="1">
       <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" hidden="1">
       <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" hidden="1">
       <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" hidden="1">
       <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="19"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+      <c r="A26" s="14"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="19"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
+      <c r="A27" s="14"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="19"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
+      <c r="A28" s="14"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="19"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
+      <c r="A29" s="14"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="19"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
+      <c r="A30" s="14"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="19"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
+      <c r="A31" s="14"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="19"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
+      <c r="A32" s="14"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="19"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
+      <c r="A33" s="14"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="19"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
+      <c r="A34" s="14"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="19"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
+      <c r="A35" s="14"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="19"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
+      <c r="A36" s="14"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="19"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
+      <c r="A37" s="14"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="19"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
+      <c r="A38" s="14"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="19"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
+      <c r="A39" s="14"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="19"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
+      <c r="A40" s="14"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="19"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
+      <c r="A41" s="14"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="19"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
+      <c r="A42" s="14"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="1"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="1"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="1"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="1"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="1"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="1"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="1"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="1"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="1"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="1"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="1"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="1"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="1"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="1"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="1"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="1"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="1"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="1"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="1"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="1"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="1"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="1"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="1"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="1"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="1"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="1"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="1"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="1"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="1"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="1"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="1"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="1"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="1"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="1"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="1"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="1"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="1"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="1"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="1"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="1"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="1"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="1"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="1"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="1"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="1"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="1"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="1"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="1"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="1"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="1"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="1"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="1"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="1"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="1"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="12"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="1"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="1"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="12"/>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="1"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="12"/>
-      <c r="G101" s="12"/>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="1"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="12"/>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="1"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="12"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="12"/>
-      <c r="G103" s="12"/>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="1"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12"/>
-      <c r="G104" s="12"/>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="1"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="12"/>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="1"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="12"/>
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="1"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="12"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12"/>
-      <c r="G107" s="12"/>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="1"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="12"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="12"/>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="1"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="1"/>
-      <c r="B110" s="12"/>
-      <c r="C110" s="12"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="12"/>
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="1"/>
-      <c r="B111" s="12"/>
-      <c r="C111" s="12"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="12"/>
-      <c r="G111" s="12"/>
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="1"/>
-      <c r="B112" s="12"/>
-      <c r="C112" s="12"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="12"/>
-      <c r="G112" s="12"/>
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="1"/>
-      <c r="B113" s="12"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="12"/>
-      <c r="G113" s="12"/>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="1"/>
-      <c r="B114" s="12"/>
-      <c r="C114" s="12"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="12"/>
-      <c r="G114" s="12"/>
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="1"/>
-      <c r="B115" s="12"/>
-      <c r="C115" s="12"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12"/>
-      <c r="G115" s="12"/>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="1"/>
-      <c r="B116" s="12"/>
-      <c r="C116" s="12"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="12"/>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="1"/>
-      <c r="B117" s="12"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="12"/>
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="1"/>
-      <c r="B118" s="12"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="12"/>
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="1"/>
-      <c r="B119" s="12"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="12"/>
-      <c r="F119" s="12"/>
-      <c r="G119" s="12"/>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="1"/>
-      <c r="B120" s="12"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="12"/>
-      <c r="G120" s="12"/>
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="14"/>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="14"/>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="14"/>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="14"/>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="14"/>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -2607,1679 +1855,1679 @@
   <sheetData>
     <row r="1" spans="2:7" ht="23.25" customHeight="1">
       <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>142</v>
+      <c r="D1" s="15" t="s">
+        <v>136</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>10</v>
+      <c r="F1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="2:7">
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="17">
         <v>0</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>15</v>
+      <c r="F3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="17">
         <v>1</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>17</v>
+      <c r="F4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="5">
         <v>2</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="17">
         <v>2</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>20</v>
+      <c r="F5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="5">
         <v>3</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="17">
         <v>3</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>22</v>
+      <c r="F6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="5">
         <v>4</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>24</v>
+      <c r="F7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="5">
         <v>5</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>27</v>
+      <c r="F8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="5">
         <v>6</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>29</v>
+      <c r="F9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="5">
         <v>7</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="5">
         <v>8</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="5">
         <v>9</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="5">
         <v>10</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>39</v>
+      <c r="F13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="5">
         <v>11</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>41</v>
+      <c r="F14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="5">
         <v>12</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>44</v>
+      <c r="F15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="5">
         <v>13</v>
       </c>
-      <c r="F16" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>46</v>
+      <c r="F16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="5">
         <v>14</v>
       </c>
-      <c r="F17" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>48</v>
+      <c r="F17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="5">
         <v>15</v>
       </c>
-      <c r="F18" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>51</v>
+      <c r="F18" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="5">
         <v>16</v>
       </c>
-      <c r="F19" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>53</v>
+      <c r="F19" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="F20" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>56</v>
+      <c r="F20" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="F21" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>58</v>
+      <c r="F21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
-      <c r="F22" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>60</v>
+      <c r="F22" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
-      <c r="F23" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>63</v>
+      <c r="F23" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
-      <c r="F24" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>65</v>
+      <c r="F24" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
-      <c r="F25" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>68</v>
+      <c r="F25" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
-      <c r="F26" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>70</v>
+      <c r="F26" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
-      <c r="F27" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>72</v>
+      <c r="F27" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
-      <c r="F28" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>75</v>
+      <c r="F28" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
-      <c r="F29" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>77</v>
+      <c r="F29" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
-      <c r="F30" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>80</v>
+      <c r="F30" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
-      <c r="F31" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>82</v>
+      <c r="F31" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
-      <c r="F32" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>84</v>
+      <c r="F32" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
-      <c r="F33" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>87</v>
+      <c r="F33" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
-      <c r="F34" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>89</v>
+      <c r="F34" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
-      <c r="F35" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>92</v>
+      <c r="F35" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
-      <c r="F36" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>94</v>
+      <c r="F36" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
-      <c r="F37" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>96</v>
+      <c r="F37" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
-      <c r="F38" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>99</v>
+      <c r="F38" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
-      <c r="F39" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>101</v>
+      <c r="F39" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
-      <c r="F40" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>104</v>
+      <c r="F40" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
-      <c r="F41" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>106</v>
+      <c r="F41" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
-      <c r="F42" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>108</v>
+      <c r="F42" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
-      <c r="F43" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>111</v>
+      <c r="F43" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
-      <c r="F44" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>113</v>
+      <c r="F44" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
-      <c r="F45" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>116</v>
+      <c r="F45" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
-      <c r="F46" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>118</v>
+      <c r="F46" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
-      <c r="F47" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="G47" s="19" t="s">
-        <v>120</v>
+      <c r="F47" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
-      <c r="F48" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>123</v>
+      <c r="F48" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
-      <c r="F49" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="G49" s="19" t="s">
-        <v>125</v>
+      <c r="F49" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
-      <c r="F50" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="G50" s="19" t="s">
-        <v>128</v>
+      <c r="F50" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
-      <c r="F51" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="G51" s="19" t="s">
-        <v>130</v>
+      <c r="F51" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
-      <c r="F52" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="G52" s="19" t="s">
-        <v>132</v>
+      <c r="F52" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
-      <c r="F53" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="G53" s="19" t="s">
-        <v>135</v>
+      <c r="F53" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
-      <c r="F54" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G54" s="19" t="s">
-        <v>137</v>
+      <c r="F54" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
-      <c r="F55" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G55" s="19" t="s">
-        <v>140</v>
+      <c r="F55" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
-      <c r="F56" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="G56" s="19">
+      <c r="F56" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G56" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="2:7">
       <c r="B57" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
-      <c r="F57" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="G57" s="19">
+      <c r="F57" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G57" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="58" spans="2:7">
       <c r="B58" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
-      <c r="F58" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="G58" s="19">
+      <c r="F58" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G58" s="14">
         <v>6</v>
       </c>
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
-      <c r="F59" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="G59" s="19">
+      <c r="F59" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G59" s="14">
         <v>8</v>
       </c>
     </row>
     <row r="60" spans="2:7">
       <c r="B60" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
-      <c r="F60" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="G60" s="19">
+      <c r="F60" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G60" s="14">
         <v>10</v>
       </c>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
-      <c r="F61" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="G61" s="19">
+      <c r="F61" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G61" s="14">
         <v>13</v>
       </c>
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
-      <c r="F62" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="G62" s="19">
+      <c r="F62" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G62" s="14">
         <v>15</v>
       </c>
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
-      <c r="F63" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="G63" s="19">
+      <c r="F63" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G63" s="14">
         <v>18</v>
       </c>
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
-      <c r="F64" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="G64" s="19">
+      <c r="F64" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G64" s="14">
         <v>20</v>
       </c>
     </row>
     <row r="65" spans="2:7">
       <c r="B65" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
-      <c r="F65" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="G65" s="19">
+      <c r="F65" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G65" s="14">
         <v>22</v>
       </c>
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
-      <c r="F66" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="G66" s="19">
+      <c r="F66" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G66" s="14">
         <v>25</v>
       </c>
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
-      <c r="F67" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="G67" s="19">
+      <c r="F67" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G67" s="14">
         <v>27</v>
       </c>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
-      <c r="F68" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="G68" s="19">
+      <c r="F68" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G68" s="14">
         <v>30</v>
       </c>
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
-      <c r="F69" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="G69" s="19">
+      <c r="F69" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G69" s="14">
         <v>32</v>
       </c>
     </row>
     <row r="70" spans="2:7">
       <c r="B70" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
-      <c r="F70" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="G70" s="19">
+      <c r="F70" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G70" s="14">
         <v>34</v>
       </c>
     </row>
     <row r="71" spans="2:7">
       <c r="B71" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
-      <c r="F71" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="G71" s="19">
+      <c r="F71" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G71" s="14">
         <v>37</v>
       </c>
     </row>
     <row r="72" spans="2:7">
       <c r="B72" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
-      <c r="F72" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="G72" s="19">
+      <c r="F72" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G72" s="14">
         <v>39</v>
       </c>
     </row>
     <row r="73" spans="2:7">
       <c r="B73" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
-      <c r="F73" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="G73" s="19">
+      <c r="F73" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G73" s="14">
         <v>42</v>
       </c>
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
-      <c r="F74" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="G74" s="19">
+      <c r="F74" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G74" s="14">
         <v>44</v>
       </c>
     </row>
     <row r="75" spans="2:7">
       <c r="B75" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
-      <c r="F75" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="G75" s="19">
+      <c r="F75" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G75" s="14">
         <v>46</v>
       </c>
     </row>
     <row r="76" spans="2:7">
       <c r="B76" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
-      <c r="F76" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="G76" s="19">
+      <c r="F76" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G76" s="14">
         <v>49</v>
       </c>
     </row>
     <row r="77" spans="2:7">
       <c r="B77" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
-      <c r="F77" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="G77" s="19">
+      <c r="F77" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G77" s="14">
         <v>51</v>
       </c>
     </row>
     <row r="78" spans="2:7">
       <c r="B78" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
-      <c r="F78" s="19">
+      <c r="F78" s="14">
         <v>0</v>
       </c>
-      <c r="G78" s="19">
+      <c r="G78" s="14">
         <v>54</v>
       </c>
     </row>
     <row r="79" spans="2:7">
       <c r="B79" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
-      <c r="F79" s="19">
+      <c r="F79" s="14">
         <v>2</v>
       </c>
-      <c r="G79" s="19">
+      <c r="G79" s="14">
         <v>56</v>
       </c>
     </row>
     <row r="80" spans="2:7">
       <c r="B80" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
-      <c r="F80" s="19">
+      <c r="F80" s="14">
         <v>4</v>
       </c>
-      <c r="G80" s="19">
+      <c r="G80" s="14">
         <v>58</v>
       </c>
     </row>
     <row r="81" spans="2:7">
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
-      <c r="F81" s="19">
+      <c r="F81" s="14">
         <v>5</v>
       </c>
-      <c r="G81" s="19">
+      <c r="G81" s="14">
         <v>61</v>
       </c>
     </row>
     <row r="82" spans="2:7">
       <c r="B82" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
-      <c r="F82" s="19">
+      <c r="F82" s="14">
         <v>7</v>
       </c>
-      <c r="G82" s="19">
+      <c r="G82" s="14">
         <v>63</v>
       </c>
     </row>
     <row r="83" spans="2:7">
       <c r="B83" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
-      <c r="F83" s="19">
+      <c r="F83" s="14">
         <v>9</v>
       </c>
-      <c r="G83" s="19">
+      <c r="G83" s="14">
         <v>66</v>
       </c>
     </row>
     <row r="84" spans="2:7">
       <c r="B84" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
-      <c r="F84" s="19">
+      <c r="F84" s="14">
         <v>11</v>
       </c>
-      <c r="G84" s="19">
+      <c r="G84" s="14">
         <v>68</v>
       </c>
     </row>
     <row r="85" spans="2:7">
       <c r="B85" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
-      <c r="F85" s="19">
+      <c r="F85" s="14">
         <v>12</v>
       </c>
-      <c r="G85" s="19">
+      <c r="G85" s="14">
         <v>70</v>
       </c>
     </row>
     <row r="86" spans="2:7">
       <c r="B86" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
-      <c r="F86" s="19">
+      <c r="F86" s="14">
         <v>14</v>
       </c>
-      <c r="G86" s="19">
+      <c r="G86" s="14">
         <v>73</v>
       </c>
     </row>
     <row r="87" spans="2:7">
       <c r="B87" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
-      <c r="F87" s="19">
+      <c r="F87" s="14">
         <v>16</v>
       </c>
-      <c r="G87" s="19">
+      <c r="G87" s="14">
         <v>75</v>
       </c>
     </row>
     <row r="88" spans="2:7">
       <c r="B88" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
-      <c r="F88" s="19">
+      <c r="F88" s="14">
         <v>17</v>
       </c>
-      <c r="G88" s="19">
+      <c r="G88" s="14">
         <v>78</v>
       </c>
     </row>
     <row r="89" spans="2:7">
       <c r="B89" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
-      <c r="F89" s="19">
+      <c r="F89" s="14">
         <v>19</v>
       </c>
-      <c r="G89" s="19">
+      <c r="G89" s="14">
         <v>80</v>
       </c>
     </row>
     <row r="90" spans="2:7">
       <c r="B90" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
-      <c r="F90" s="19">
+      <c r="F90" s="14">
         <v>21</v>
       </c>
-      <c r="G90" s="19">
+      <c r="G90" s="14">
         <v>82</v>
       </c>
     </row>
     <row r="91" spans="2:7">
       <c r="B91" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
-      <c r="F91" s="19">
+      <c r="F91" s="14">
         <v>23</v>
       </c>
-      <c r="G91" s="19">
+      <c r="G91" s="14">
         <v>85</v>
       </c>
     </row>
     <row r="92" spans="2:7">
       <c r="B92" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
-      <c r="F92" s="19">
+      <c r="F92" s="14">
         <v>24</v>
       </c>
-      <c r="G92" s="19">
+      <c r="G92" s="14">
         <v>87</v>
       </c>
     </row>
     <row r="93" spans="2:7">
       <c r="B93" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
-      <c r="F93" s="19">
+      <c r="F93" s="14">
         <v>26</v>
       </c>
-      <c r="G93" s="19">
+      <c r="G93" s="14">
         <v>90</v>
       </c>
     </row>
     <row r="94" spans="2:7">
       <c r="B94" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
-      <c r="F94" s="19">
+      <c r="F94" s="14">
         <v>28</v>
       </c>
-      <c r="G94" s="19">
+      <c r="G94" s="14">
         <v>92</v>
       </c>
     </row>
     <row r="95" spans="2:7">
       <c r="B95" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
-      <c r="F95" s="19">
+      <c r="F95" s="14">
         <v>29</v>
       </c>
-      <c r="G95" s="19">
+      <c r="G95" s="14">
         <v>94</v>
       </c>
     </row>
     <row r="96" spans="2:7">
       <c r="B96" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
-      <c r="F96" s="19">
+      <c r="F96" s="14">
         <v>31</v>
       </c>
-      <c r="G96" s="19">
+      <c r="G96" s="14">
         <v>97</v>
       </c>
     </row>
     <row r="97" spans="2:7">
       <c r="B97" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
-      <c r="F97" s="19">
+      <c r="F97" s="14">
         <v>33</v>
       </c>
-      <c r="G97" s="19">
+      <c r="G97" s="14">
         <v>99</v>
       </c>
     </row>
     <row r="98" spans="2:7">
       <c r="B98" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
-      <c r="F98" s="19">
+      <c r="F98" s="14">
         <v>35</v>
       </c>
-      <c r="G98" s="19">
+      <c r="G98" s="14">
         <v>102</v>
       </c>
     </row>
     <row r="99" spans="2:7">
       <c r="B99" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
-      <c r="F99" s="19">
+      <c r="F99" s="14">
         <v>36</v>
       </c>
-      <c r="G99" s="19">
+      <c r="G99" s="14">
         <v>104</v>
       </c>
     </row>
     <row r="100" spans="2:7">
       <c r="B100" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
-      <c r="F100" s="19">
+      <c r="F100" s="14">
         <v>38</v>
       </c>
-      <c r="G100" s="19">
+      <c r="G100" s="14">
         <v>106</v>
       </c>
     </row>
     <row r="101" spans="2:7">
       <c r="B101" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
-      <c r="F101" s="19">
+      <c r="F101" s="14">
         <v>40</v>
       </c>
-      <c r="G101" s="19">
+      <c r="G101" s="14">
         <v>109</v>
       </c>
     </row>
     <row r="102" spans="2:7">
       <c r="B102" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
-      <c r="F102" s="19">
+      <c r="F102" s="14">
         <v>41</v>
       </c>
-      <c r="G102" s="19">
+      <c r="G102" s="14">
         <v>111</v>
       </c>
     </row>
     <row r="103" spans="2:7">
       <c r="B103" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
-      <c r="F103" s="19">
+      <c r="F103" s="14">
         <v>43</v>
       </c>
-      <c r="G103" s="19">
+      <c r="G103" s="14">
         <v>114</v>
       </c>
     </row>
     <row r="104" spans="2:7">
       <c r="B104" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
-      <c r="F104" s="19">
+      <c r="F104" s="14">
         <v>45</v>
       </c>
-      <c r="G104" s="19">
+      <c r="G104" s="14">
         <v>116</v>
       </c>
     </row>
     <row r="105" spans="2:7">
       <c r="B105" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
-      <c r="F105" s="19">
+      <c r="F105" s="14">
         <v>47</v>
       </c>
-      <c r="G105" s="19">
+      <c r="G105" s="14">
         <v>118</v>
       </c>
     </row>
     <row r="106" spans="2:7">
       <c r="B106" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
-      <c r="F106" s="19">
+      <c r="F106" s="14">
         <v>48</v>
       </c>
-      <c r="G106" s="19">
+      <c r="G106" s="14">
         <v>121</v>
       </c>
     </row>
     <row r="107" spans="2:7">
       <c r="B107" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
-      <c r="F107" s="19">
+      <c r="F107" s="14">
         <v>50</v>
       </c>
-      <c r="G107" s="19">
+      <c r="G107" s="14">
         <v>123</v>
       </c>
     </row>
     <row r="108" spans="2:7">
       <c r="B108" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
-      <c r="F108" s="19">
+      <c r="F108" s="14">
         <v>52</v>
       </c>
-      <c r="G108" s="19">
+      <c r="G108" s="14">
         <v>126</v>
       </c>
     </row>
     <row r="109" spans="2:7">
       <c r="B109" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
-      <c r="F109" s="19">
+      <c r="F109" s="14">
         <v>53</v>
       </c>
-      <c r="G109" s="18"/>
+      <c r="G109" s="13"/>
     </row>
     <row r="110" spans="2:7">
       <c r="B110" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
-      <c r="F110" s="19">
+      <c r="F110" s="14">
         <v>55</v>
       </c>
-      <c r="G110" s="18"/>
+      <c r="G110" s="13"/>
     </row>
     <row r="111" spans="2:7">
       <c r="B111" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
-      <c r="F111" s="19">
+      <c r="F111" s="14">
         <v>57</v>
       </c>
-      <c r="G111" s="18"/>
+      <c r="G111" s="13"/>
     </row>
     <row r="112" spans="2:7">
       <c r="B112" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
-      <c r="F112" s="19">
+      <c r="F112" s="14">
         <v>59</v>
       </c>
-      <c r="G112" s="18"/>
+      <c r="G112" s="13"/>
     </row>
     <row r="113" spans="2:6">
       <c r="B113" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
-      <c r="F113" s="19">
+      <c r="F113" s="14">
         <v>60</v>
       </c>
     </row>
     <row r="114" spans="2:6">
       <c r="B114" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
-      <c r="F114" s="19">
+      <c r="F114" s="14">
         <v>62</v>
       </c>
     </row>
     <row r="115" spans="2:6">
       <c r="B115" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
-      <c r="F115" s="19">
+      <c r="F115" s="14">
         <v>64</v>
       </c>
     </row>
     <row r="116" spans="2:6">
       <c r="B116" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
-      <c r="F116" s="19">
+      <c r="F116" s="14">
         <v>65</v>
       </c>
     </row>
     <row r="117" spans="2:6">
       <c r="B117" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
-      <c r="F117" s="19">
+      <c r="F117" s="14">
         <v>67</v>
       </c>
     </row>
     <row r="118" spans="2:6">
       <c r="B118" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
-      <c r="F118" s="19">
+      <c r="F118" s="14">
         <v>69</v>
       </c>
     </row>
     <row r="119" spans="2:6">
       <c r="B119" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
-      <c r="F119" s="19">
+      <c r="F119" s="14">
         <v>71</v>
       </c>
     </row>
     <row r="120" spans="2:6">
       <c r="B120" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
-      <c r="F120" s="19">
+      <c r="F120" s="14">
         <v>72</v>
       </c>
     </row>
     <row r="121" spans="2:6">
       <c r="B121" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
-      <c r="F121" s="19">
+      <c r="F121" s="14">
         <v>74</v>
       </c>
     </row>
     <row r="122" spans="2:6">
       <c r="B122" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
-      <c r="F122" s="19">
+      <c r="F122" s="14">
         <v>76</v>
       </c>
     </row>
     <row r="123" spans="2:6">
       <c r="B123" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
-      <c r="F123" s="19">
+      <c r="F123" s="14">
         <v>77</v>
       </c>
     </row>
     <row r="124" spans="2:6">
       <c r="B124" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
-      <c r="F124" s="19">
+      <c r="F124" s="14">
         <v>79</v>
       </c>
     </row>
     <row r="125" spans="2:6">
       <c r="B125" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
-      <c r="F125" s="19">
+      <c r="F125" s="14">
         <v>81</v>
       </c>
     </row>
     <row r="126" spans="2:6">
       <c r="B126" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
-      <c r="F126" s="19">
+      <c r="F126" s="14">
         <v>83</v>
       </c>
     </row>
     <row r="127" spans="2:6">
       <c r="B127" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
-      <c r="F127" s="19">
+      <c r="F127" s="14">
         <v>84</v>
       </c>
     </row>
     <row r="128" spans="2:6">
       <c r="B128" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
-      <c r="F128" s="19">
+      <c r="F128" s="14">
         <v>86</v>
       </c>
     </row>
     <row r="129" spans="2:6">
       <c r="B129" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
-      <c r="F129" s="19">
+      <c r="F129" s="14">
         <v>88</v>
       </c>
     </row>
     <row r="130" spans="2:6">
       <c r="B130" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F130" s="19">
+        <v>135</v>
+      </c>
+      <c r="F130" s="14">
         <v>89</v>
       </c>
     </row>
@@ -4287,7 +3535,7 @@
       <c r="B131" s="1">
         <v>0</v>
       </c>
-      <c r="F131" s="19">
+      <c r="F131" s="14">
         <v>91</v>
       </c>
     </row>
@@ -4295,7 +3543,7 @@
       <c r="B132" s="1">
         <v>1</v>
       </c>
-      <c r="F132" s="19">
+      <c r="F132" s="14">
         <v>93</v>
       </c>
     </row>
@@ -4303,7 +3551,7 @@
       <c r="B133" s="1">
         <v>2</v>
       </c>
-      <c r="F133" s="19">
+      <c r="F133" s="14">
         <v>95</v>
       </c>
     </row>
@@ -4311,7 +3559,7 @@
       <c r="B134" s="1">
         <v>3</v>
       </c>
-      <c r="F134" s="19">
+      <c r="F134" s="14">
         <v>96</v>
       </c>
     </row>
@@ -4319,7 +3567,7 @@
       <c r="B135" s="1">
         <v>4</v>
       </c>
-      <c r="F135" s="19">
+      <c r="F135" s="14">
         <v>98</v>
       </c>
     </row>
@@ -4327,7 +3575,7 @@
       <c r="B136" s="1">
         <v>5</v>
       </c>
-      <c r="F136" s="19">
+      <c r="F136" s="14">
         <v>100</v>
       </c>
     </row>
@@ -4335,7 +3583,7 @@
       <c r="B137" s="1">
         <v>6</v>
       </c>
-      <c r="F137" s="19">
+      <c r="F137" s="14">
         <v>101</v>
       </c>
     </row>
@@ -4343,7 +3591,7 @@
       <c r="B138" s="1">
         <v>7</v>
       </c>
-      <c r="F138" s="19">
+      <c r="F138" s="14">
         <v>103</v>
       </c>
     </row>
@@ -4351,7 +3599,7 @@
       <c r="B139" s="1">
         <v>8</v>
       </c>
-      <c r="F139" s="19">
+      <c r="F139" s="14">
         <v>105</v>
       </c>
     </row>
@@ -4359,7 +3607,7 @@
       <c r="B140" s="1">
         <v>9</v>
       </c>
-      <c r="F140" s="19">
+      <c r="F140" s="14">
         <v>107</v>
       </c>
     </row>
@@ -4367,7 +3615,7 @@
       <c r="B141" s="1">
         <v>10</v>
       </c>
-      <c r="F141" s="19">
+      <c r="F141" s="14">
         <v>108</v>
       </c>
     </row>
@@ -4375,7 +3623,7 @@
       <c r="B142" s="1">
         <v>11</v>
       </c>
-      <c r="F142" s="19">
+      <c r="F142" s="14">
         <v>110</v>
       </c>
     </row>
@@ -4383,7 +3631,7 @@
       <c r="B143" s="1">
         <v>12</v>
       </c>
-      <c r="F143" s="19">
+      <c r="F143" s="14">
         <v>112</v>
       </c>
     </row>
@@ -4391,7 +3639,7 @@
       <c r="B144" s="1">
         <v>13</v>
       </c>
-      <c r="F144" s="19">
+      <c r="F144" s="14">
         <v>113</v>
       </c>
     </row>
@@ -4399,7 +3647,7 @@
       <c r="B145" s="1">
         <v>14</v>
       </c>
-      <c r="F145" s="19">
+      <c r="F145" s="14">
         <v>115</v>
       </c>
     </row>
@@ -4407,7 +3655,7 @@
       <c r="B146" s="1">
         <v>15</v>
       </c>
-      <c r="F146" s="19">
+      <c r="F146" s="14">
         <v>117</v>
       </c>
     </row>
@@ -4415,7 +3663,7 @@
       <c r="B147" s="1">
         <v>16</v>
       </c>
-      <c r="F147" s="19">
+      <c r="F147" s="14">
         <v>119</v>
       </c>
     </row>
@@ -4423,7 +3671,7 @@
       <c r="B148" s="1">
         <v>17</v>
       </c>
-      <c r="F148" s="19">
+      <c r="F148" s="14">
         <v>120</v>
       </c>
     </row>
@@ -4431,7 +3679,7 @@
       <c r="B149" s="1">
         <v>18</v>
       </c>
-      <c r="F149" s="19">
+      <c r="F149" s="14">
         <v>122</v>
       </c>
     </row>
@@ -4439,7 +3687,7 @@
       <c r="B150" s="1">
         <v>19</v>
       </c>
-      <c r="F150" s="19">
+      <c r="F150" s="14">
         <v>124</v>
       </c>
     </row>
@@ -4447,7 +3695,7 @@
       <c r="B151" s="1">
         <v>20</v>
       </c>
-      <c r="F151" s="19">
+      <c r="F151" s="14">
         <v>125</v>
       </c>
     </row>
@@ -4455,7 +3703,7 @@
       <c r="B152" s="1">
         <v>21</v>
       </c>
-      <c r="F152" s="19">
+      <c r="F152" s="14">
         <v>127</v>
       </c>
     </row>
@@ -4463,49 +3711,49 @@
       <c r="B153" s="1">
         <v>22</v>
       </c>
-      <c r="F153" s="18"/>
+      <c r="F153" s="13"/>
     </row>
     <row r="154" spans="2:6">
       <c r="B154" s="1">
         <v>23</v>
       </c>
-      <c r="F154" s="18"/>
+      <c r="F154" s="13"/>
     </row>
     <row r="155" spans="2:6">
       <c r="B155" s="1">
         <v>24</v>
       </c>
-      <c r="F155" s="18"/>
+      <c r="F155" s="13"/>
     </row>
     <row r="156" spans="2:6">
       <c r="B156" s="1">
         <v>25</v>
       </c>
-      <c r="F156" s="18"/>
+      <c r="F156" s="13"/>
     </row>
     <row r="157" spans="2:6">
       <c r="B157" s="1">
         <v>26</v>
       </c>
-      <c r="F157" s="18"/>
+      <c r="F157" s="13"/>
     </row>
     <row r="158" spans="2:6">
       <c r="B158" s="1">
         <v>27</v>
       </c>
-      <c r="F158" s="18"/>
+      <c r="F158" s="13"/>
     </row>
     <row r="159" spans="2:6">
       <c r="B159" s="1">
         <v>28</v>
       </c>
-      <c r="F159" s="18"/>
+      <c r="F159" s="13"/>
     </row>
     <row r="160" spans="2:6">
       <c r="B160" s="1">
         <v>29</v>
       </c>
-      <c r="F160" s="18"/>
+      <c r="F160" s="13"/>
     </row>
     <row r="161" spans="2:2">
       <c r="B161" s="1">

--- a/External/Xlsx.KeySwitches/Template.xlsx
+++ b/External/Xlsx.KeySwitches/Template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8EFA22-CDAD-D649-8D90-5DBAB88D44C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1A5353-6D7F-463E-AF66-C88E879F2575}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="480" windowWidth="24820" windowHeight="15060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5025" yWindow="495" windowWidth="22575" windowHeight="13530" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="__TEMPLATE__" sheetId="1" r:id="rId1"/>
@@ -739,8 +739,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1053,7 +1053,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J126"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="25" topLeftCell="B26" activePane="bottomRight" state="frozenSplit"/>
@@ -1062,20 +1062,20 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="39.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5" style="11" customWidth="1"/>
-    <col min="11" max="1024" width="9.83203125" style="4" customWidth="1"/>
-    <col min="1025" max="16384" width="8.83203125" style="4"/>
+    <col min="11" max="1024" width="9.875" style="4" customWidth="1"/>
+    <col min="1025" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.25" customHeight="1">
@@ -1235,594 +1235,6 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="14"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="14"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="14"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="14"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="14"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="14"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="14"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="14"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="14"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="14"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="14"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="14"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="14"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="14"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="14"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="14"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="14"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="1"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="1"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="1"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="1"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="1"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="1"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="1"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="1"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="1"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" s="1"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71" s="1"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="1"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73" s="1"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74" s="1"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="1"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" s="1"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77" s="1"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="A78" s="1"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79" s="1"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="A80" s="1"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="A81" s="1"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-    </row>
-    <row r="82" spans="1:10">
-      <c r="A82" s="1"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="A83" s="1"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-    </row>
-    <row r="84" spans="1:10">
-      <c r="A84" s="1"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-    </row>
-    <row r="85" spans="1:10">
-      <c r="A85" s="1"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-    </row>
-    <row r="86" spans="1:10">
-      <c r="A86" s="1"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-    </row>
-    <row r="87" spans="1:10">
-      <c r="A87" s="1"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-    </row>
-    <row r="88" spans="1:10">
-      <c r="A88" s="1"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-    </row>
-    <row r="89" spans="1:10">
-      <c r="A89" s="1"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-    </row>
-    <row r="90" spans="1:10">
-      <c r="A90" s="1"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-    </row>
-    <row r="91" spans="1:10">
-      <c r="A91" s="1"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-    </row>
-    <row r="92" spans="1:10">
-      <c r="A92" s="1"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-    </row>
-    <row r="93" spans="1:10">
-      <c r="A93" s="1"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-    </row>
-    <row r="94" spans="1:10">
-      <c r="A94" s="1"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
-    </row>
-    <row r="95" spans="1:10">
-      <c r="A95" s="1"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-    </row>
-    <row r="96" spans="1:10">
-      <c r="A96" s="1"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
-    </row>
-    <row r="97" spans="1:10">
-      <c r="A97" s="1"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
-    </row>
-    <row r="98" spans="1:10">
-      <c r="A98" s="1"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
-    </row>
-    <row r="99" spans="1:10">
-      <c r="A99" s="1"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
-    </row>
-    <row r="100" spans="1:10">
-      <c r="A100" s="1"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
-      <c r="J100" s="4"/>
-    </row>
-    <row r="101" spans="1:10">
-      <c r="A101" s="1"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
-    </row>
-    <row r="102" spans="1:10">
-      <c r="A102" s="1"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="4"/>
-      <c r="J102" s="4"/>
-    </row>
-    <row r="103" spans="1:10">
-      <c r="A103" s="1"/>
-      <c r="H103" s="4"/>
-      <c r="I103" s="4"/>
-      <c r="J103" s="4"/>
-    </row>
-    <row r="104" spans="1:10">
-      <c r="A104" s="1"/>
-      <c r="H104" s="4"/>
-      <c r="I104" s="4"/>
-      <c r="J104" s="4"/>
-    </row>
-    <row r="105" spans="1:10">
-      <c r="A105" s="1"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
-      <c r="J105" s="4"/>
-    </row>
-    <row r="106" spans="1:10">
-      <c r="A106" s="1"/>
-      <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
-      <c r="J106" s="4"/>
-    </row>
-    <row r="107" spans="1:10">
-      <c r="A107" s="1"/>
-      <c r="H107" s="4"/>
-      <c r="I107" s="4"/>
-      <c r="J107" s="4"/>
-    </row>
-    <row r="108" spans="1:10">
-      <c r="A108" s="1"/>
-      <c r="H108" s="4"/>
-      <c r="I108" s="4"/>
-      <c r="J108" s="4"/>
-    </row>
-    <row r="109" spans="1:10">
-      <c r="A109" s="1"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="4"/>
-      <c r="J109" s="4"/>
-    </row>
-    <row r="110" spans="1:10">
-      <c r="A110" s="1"/>
-      <c r="H110" s="4"/>
-      <c r="I110" s="4"/>
-      <c r="J110" s="4"/>
-    </row>
-    <row r="111" spans="1:10">
-      <c r="A111" s="1"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="4"/>
-      <c r="J111" s="4"/>
-    </row>
-    <row r="112" spans="1:10">
-      <c r="A112" s="1"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="4"/>
-      <c r="J112" s="4"/>
-    </row>
-    <row r="113" spans="1:10">
-      <c r="A113" s="1"/>
-      <c r="H113" s="4"/>
-      <c r="I113" s="4"/>
-      <c r="J113" s="4"/>
-    </row>
-    <row r="114" spans="1:10">
-      <c r="A114" s="1"/>
-      <c r="H114" s="4"/>
-      <c r="I114" s="4"/>
-      <c r="J114" s="4"/>
-    </row>
-    <row r="115" spans="1:10">
-      <c r="A115" s="1"/>
-      <c r="H115" s="4"/>
-      <c r="I115" s="4"/>
-      <c r="J115" s="4"/>
-    </row>
-    <row r="116" spans="1:10">
-      <c r="A116" s="1"/>
-      <c r="H116" s="4"/>
-      <c r="I116" s="4"/>
-      <c r="J116" s="4"/>
-    </row>
-    <row r="117" spans="1:10">
-      <c r="A117" s="1"/>
-      <c r="H117" s="4"/>
-      <c r="I117" s="4"/>
-      <c r="J117" s="4"/>
-    </row>
-    <row r="118" spans="1:10">
-      <c r="A118" s="1"/>
-      <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
-      <c r="J118" s="4"/>
-    </row>
-    <row r="119" spans="1:10">
-      <c r="A119" s="1"/>
-      <c r="H119" s="4"/>
-      <c r="I119" s="4"/>
-      <c r="J119" s="4"/>
-    </row>
-    <row r="120" spans="1:10">
-      <c r="A120" s="1"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
-      <c r="J120" s="4"/>
-    </row>
-    <row r="121" spans="1:10">
-      <c r="A121" s="14"/>
-    </row>
-    <row r="122" spans="1:10">
-      <c r="A122" s="14"/>
-    </row>
-    <row r="123" spans="1:10">
-      <c r="A123" s="14"/>
-    </row>
-    <row r="124" spans="1:10">
-      <c r="A124" s="14"/>
-    </row>
-    <row r="125" spans="1:10">
-      <c r="A125" s="14"/>
-    </row>
-    <row r="126" spans="1:10">
-      <c r="A126"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -1841,16 +1253,16 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="3" style="4" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="4" customWidth="1"/>
     <col min="3" max="4" width="20" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="1027" width="9.83203125" style="4" customWidth="1"/>
-    <col min="1028" max="16384" width="8.83203125" style="4"/>
+    <col min="5" max="5" width="17.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="1027" width="9.875" style="4" customWidth="1"/>
+    <col min="1028" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="23.25" customHeight="1">
